--- a/biology/Médecine/Ernst_Schweninger/Ernst_Schweninger.xlsx
+++ b/biology/Médecine/Ernst_Schweninger/Ernst_Schweninger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Schweninger, né le 15 juin 1850 à Freystadt et mort le 13 janvier 1924 à Munich, est un médecin et historien de la médecine[réf. nécessaire] allemand.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Schweninger étudie à Munich à partir de 1866. En 1870, il devient assistant de Ludwig von Buhl (de). En 1875, il passe son habilitation à l'université Louis-et-Maximilien de Munich en pathologie. Il commence à exercer dans le nouvel hôpital de Berlin, dans Groß-Lichterfelde en 1879.
 Il réussit à soigner le chancelier Otto von Bismarck[réf. nécessaire] après que celui-ci a été victime d'un attentat au poignard en 1884. Il devient alors professeur à l'université Humboldt de Berlin, membre extraordinaire de la Gesundheitsamt[pas clair] ainsi que directeur d'un des départements de l'hôpital central de la charité.
 En 1886, il fait construire un sanatorium à Heidelberg afin de soigner l'obésité grâce à des cures, dont les méthodes ont été développées par Max Joseph Oertel (de).
-En 1902, il est embauché par Julius Pagel en tant que professeur d'histoire de la médecine de l'université Humboldt de Berlin[1].
-Schweninger se marie en 1896 à l'ancienne épouse du peintre Franz von Lenbach, qui s'était liée d'amitié avec le chancelier dès 1874[2].
+En 1902, il est embauché par Julius Pagel en tant que professeur d'histoire de la médecine de l'université Humboldt de Berlin.
+Schweninger se marie en 1896 à l'ancienne épouse du peintre Franz von Lenbach, qui s'était liée d'amitié avec le chancelier dès 1874.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Gesammelte Arbeiten, Berlin, 1886
 (de) Über das Kochsche Heilmittel gegen Tuberkulose, Hambourg et Leipzig, 1890–1891
